--- a/D5250018C2019QQ02C.xlsx
+++ b/D5250018C2019QQ02C.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Desktop\GE DS\t\datascience-project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34514FF0-B894-4337-8739-A35883951DB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12105" yWindow="-15" windowWidth="11910" windowHeight="9285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="8" r:id="rId1"/>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
   <si>
     <t>百分位數</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1823,6 +1829,175 @@
         <charset val="136"/>
       </rPr>
       <t>月整體僱員的每小時工資分布</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>按年變動率（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>）(2019)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>按年變動率（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>）(2018）</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>按年變動率（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2017)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>按年變動率（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2016)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>按年變動率（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2015)</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1830,7 +2005,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1838,7 +2013,7 @@
     <numFmt numFmtId="179" formatCode="\+0.0;\-0.0;0.0"/>
     <numFmt numFmtId="180" formatCode="###\ ###\ ###"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1960,6 +2135,12 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2036,7 +2217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2130,19 +2311,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="2"/>
-    <cellStyle name="一般 3" xfId="3"/>
-    <cellStyle name="一般 4" xfId="4"/>
-    <cellStyle name="一般 5" xfId="5"/>
-    <cellStyle name="一般 6" xfId="6"/>
-    <cellStyle name="一般 7" xfId="7"/>
-    <cellStyle name="一般 8" xfId="8"/>
-    <cellStyle name="一般 9" xfId="1"/>
-    <cellStyle name="千分位 2" xfId="9"/>
-    <cellStyle name="千分位[0] 2" xfId="10"/>
+    <cellStyle name="一般 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 7" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="一般 8" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="一般 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="千分位 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="千分位[0] 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="超連結" xfId="11" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2156,6 +2340,1468 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Annual Change (%)/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>按年變動率（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>）</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-HK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2019C'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>按年變動率（%）(2019)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2019C'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>186.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2019C'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>\+0.0;\-0.0;0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F59-44E6-B06A-2C2154E4AADE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2018C'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>按年變動率（%）(2018）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018C'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018C'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>\+0.0;\-0.0;0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8F59-44E6-B06A-2C2154E4AADE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2017C'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>按年變動率（%）(2017)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2017C'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>178.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2017C'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>\+0.0;\-0.0;0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8F59-44E6-B06A-2C2154E4AADE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2016C'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>按年變動率（%）(2016)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2016C'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2016C'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>\+0.0;\-0.0;0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.6999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3000000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8F59-44E6-B06A-2C2154E4AADE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2015C'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>按年變動率（%）(2015)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2015C'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2015C'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>\+0.0;\-0.0;0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8F59-44E6-B06A-2C2154E4AADE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1386417071"/>
+        <c:axId val="1386422063"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1386417071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Salary per hour(HKD)/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>每小時工資</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>港元</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-HK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-HK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1386422063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1386422063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="\+0.0;\-0.0;0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-HK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1386417071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-HK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-HK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>232834</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B773FA2E-9B84-43AC-90A5-79BD1B6BD67A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2201,7 +3847,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2234,9 +3880,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2269,6 +3932,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2444,13 +4124,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2516,15 +4196,15 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A5" location="'2017C'!A1" display="2017年5月至6月整體僱員的每小時工資分布"/>
-    <hyperlink ref="A6" location="'2016C'!A1" display="2016年5月至6月整體每小時工資分布"/>
-    <hyperlink ref="A7" location="'2015C'!A1" display="2015年5月至6月整體每小時工資分布"/>
-    <hyperlink ref="A8" location="'2014C'!A1" display="2014年5月至6月整體每小時工資分布"/>
-    <hyperlink ref="A9" location="'2013C'!A1" display="2013年5月至6月整體每小時工資分布"/>
-    <hyperlink ref="A10" location="'2012C'!A1" display="2012年5月至6月整體每小時工資分布"/>
-    <hyperlink ref="A11" location="'2011C'!A1" display="2011年5月至6月整體每小時工資分布"/>
-    <hyperlink ref="A4" location="'2018C'!A1" display="2018年5月至6月整體僱員的每小時工資分布"/>
-    <hyperlink ref="A3" location="'2019C'!A1" display="2019年5月至6月整體僱員的每小時工資分布"/>
+    <hyperlink ref="A5" location="'2017C'!A1" display="2017年5月至6月整體僱員的每小時工資分布" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A6" location="'2016C'!A1" display="2016年5月至6月整體每小時工資分布" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A7" location="'2015C'!A1" display="2015年5月至6月整體每小時工資分布" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A8" location="'2014C'!A1" display="2014年5月至6月整體每小時工資分布" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A9" location="'2013C'!A1" display="2013年5月至6月整體每小時工資分布" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A10" location="'2012C'!A1" display="2012年5月至6月整體每小時工資分布" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A11" location="'2011C'!A1" display="2011年5月至6月整體每小時工資分布" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A4" location="'2018C'!A1" display="2018年5月至6月整體僱員的每小時工資分布" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A3" location="'2019C'!A1" display="2019年5月至6月整體僱員的每小時工資分布" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2532,7 +4212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2703,7 +4383,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" location="索引!A1" display="索引"/>
+    <hyperlink ref="E1" location="索引!A1" display="索引" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -2711,14 +4391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2747,8 +4427,8 @@
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>27</v>
+      <c r="C3" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -2841,22 +4521,23 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" location="索引!A1" display="索引"/>
+    <hyperlink ref="E1" location="索引!A1" display="索引" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2885,8 +4566,8 @@
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>27</v>
+      <c r="C3" s="31" t="s">
+        <v>55</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -2979,7 +4660,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" location="索引!A1" display="索引"/>
+    <hyperlink ref="E1" location="索引!A1" display="索引" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2987,14 +4668,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3023,8 +4704,8 @@
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>27</v>
+      <c r="C3" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -3117,7 +4798,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" location="索引!A1" display="索引"/>
+    <hyperlink ref="E1" location="索引!A1" display="索引" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3125,14 +4806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3161,8 +4842,8 @@
       <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>27</v>
+      <c r="C3" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -3255,7 +4936,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" location="索引!A1" display="索引"/>
+    <hyperlink ref="E1" location="索引!A1" display="索引" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3263,14 +4944,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3299,8 +4980,8 @@
       <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>27</v>
+      <c r="C3" s="31" t="s">
+        <v>58</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -3393,7 +5074,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" location="索引!A1" display="索引"/>
+    <hyperlink ref="E1" location="索引!A1" display="索引" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3401,7 +5082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3531,7 +5212,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" location="索引!A1" display="索引"/>
+    <hyperlink ref="E1" location="索引!A1" display="索引" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3539,7 +5220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3672,7 +5353,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" location="索引!A1" display="索引"/>
+    <hyperlink ref="E1" location="索引!A1" display="索引" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3680,7 +5361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3813,7 +5494,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" location="索引!A1" display="索引"/>
+    <hyperlink ref="E1" location="索引!A1" display="索引" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
